--- a/outputs/mvp/ind_4_3_1/ind_4_3_1.xlsx
+++ b/outputs/mvp/ind_4_3_1/ind_4_3_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +409,21 @@
       <c r="D2">
         <v>0.6880510382349889</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -430,6 +445,16 @@
           <t>Feminino</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -451,6 +476,16 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -459,22 +494,27 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.8143675819898087</v>
+        <v>0.8679954013065397</v>
       </c>
       <c r="C5">
-        <v>0.6722571314500111</v>
+        <v>0.7802485613338277</v>
       </c>
       <c r="D5">
-        <v>0.9564780325296064</v>
+        <v>0.9557422412792518</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -485,22 +525,27 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.9207089926321721</v>
+        <v>0.7678188217042967</v>
       </c>
       <c r="C6">
-        <v>0.8041402238781215</v>
+        <v>0.7544100201609476</v>
       </c>
       <c r="D6">
-        <v>1.037277761386223</v>
+        <v>0.7812276232476458</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -511,22 +556,27 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.8036874731897781</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.7836598083064799</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.8237151380730763</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -537,22 +587,27 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.7312221731839444</v>
+        <v>0.6274312083975959</v>
       </c>
       <c r="C8">
-        <v>0.7139408720890572</v>
+        <v>0.4519533365771304</v>
       </c>
       <c r="D8">
-        <v>0.7485034742788317</v>
+        <v>0.8029090802180614</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -563,22 +618,27 @@
         </is>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.6177293032056679</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.6057774644259744</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.6296811419853614</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -589,22 +649,27 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.5884315361036784</v>
+        <v>0.7051729125371385</v>
       </c>
       <c r="C10">
-        <v>0.2752537486502896</v>
+        <v>0.694837583240611</v>
       </c>
       <c r="D10">
-        <v>0.9016093235570672</v>
+        <v>0.7155082418336661</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -615,22 +680,27 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.6584339218302048</v>
+        <v>0.5543309755995901</v>
       </c>
       <c r="C11">
-        <v>0.4703579211475524</v>
+        <v>0.5390438605478176</v>
       </c>
       <c r="D11">
-        <v>0.8465099225128572</v>
+        <v>0.5696180906513626</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -641,13 +711,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.6765907168447828</v>
+        <v>0.8143675819898087</v>
       </c>
       <c r="C12">
-        <v>0.6611099374704882</v>
+        <v>0.6722571314500111</v>
       </c>
       <c r="D12">
-        <v>0.6920714962190774</v>
+        <v>0.9564780325296064</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -656,7 +726,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -667,13 +742,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.5625784128462121</v>
+        <v>0.9207089926321721</v>
       </c>
       <c r="C13">
-        <v>0.5470491485086424</v>
+        <v>0.8041402238781215</v>
       </c>
       <c r="D13">
-        <v>0.5781076771837819</v>
+        <v>1.037277761386223</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -682,7 +757,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -693,13 +773,13 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.8347416779235822</v>
+        <v>0.8036874731897781</v>
       </c>
       <c r="C14">
-        <v>0.6933658607803703</v>
+        <v>0.7836598083064799</v>
       </c>
       <c r="D14">
-        <v>0.9761174950667941</v>
+        <v>0.8237151380730763</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -708,12 +788,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -724,13 +804,13 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.9370336068243746</v>
+        <v>0.7312221731839444</v>
       </c>
       <c r="C15">
-        <v>0.8287818981642153</v>
+        <v>0.7139408720890572</v>
       </c>
       <c r="D15">
-        <v>1.045285315484534</v>
+        <v>0.7485034742788317</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -739,12 +819,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -755,13 +835,13 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.8157642585823609</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7934719002210419</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.8380566169436799</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -770,12 +850,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -786,27 +866,27 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.745205045680332</v>
+        <v>0.5884315361036784</v>
       </c>
       <c r="C17">
-        <v>0.72591664790566</v>
+        <v>0.2752537486502896</v>
       </c>
       <c r="D17">
-        <v>0.7644934434550039</v>
+        <v>0.9016093235570672</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -817,27 +897,27 @@
         </is>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.6584339218302048</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.4703579211475524</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.8465099225128572</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -848,13 +928,13 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.6103464848892114</v>
+        <v>0.6765907168447828</v>
       </c>
       <c r="C19">
-        <v>0.2228443477530797</v>
+        <v>0.6611099374704882</v>
       </c>
       <c r="D19">
-        <v>0.9978486220253431</v>
+        <v>0.6920714962190774</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -863,12 +943,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -879,13 +959,13 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.6387892304135054</v>
+        <v>0.5625784128462121</v>
       </c>
       <c r="C20">
-        <v>0.4082792377729573</v>
+        <v>0.5470491485086424</v>
       </c>
       <c r="D20">
-        <v>0.8692992230540536</v>
+        <v>0.5781076771837819</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -894,12 +974,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -910,13 +990,13 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.6947633444509966</v>
+        <v>0.7471072928420919</v>
       </c>
       <c r="C21">
-        <v>0.6764895732275429</v>
+        <v>0.733353101563306</v>
       </c>
       <c r="D21">
-        <v>0.7130371156744504</v>
+        <v>0.7608614841208777</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -925,7 +1005,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -941,13 +1021,13 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.6031089889072856</v>
+        <v>0.6637574746103228</v>
       </c>
       <c r="C22">
-        <v>0.5847775925620416</v>
+        <v>0.6498216423436606</v>
       </c>
       <c r="D22">
-        <v>0.6214403852525295</v>
+        <v>0.6776933068769849</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -956,7 +1036,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -972,13 +1052,13 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.6419923032348841</v>
+        <v>0.6404472099493849</v>
       </c>
       <c r="C23">
-        <v>0.1144710689296327</v>
+        <v>0.6191247619741022</v>
       </c>
       <c r="D23">
-        <v>1.169513537540136</v>
+        <v>0.6617696579246676</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -987,7 +1067,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1003,13 +1083,13 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.5717172321250799</v>
+        <v>0.4778327758577748</v>
       </c>
       <c r="C24">
-        <v>-0.077270752974545</v>
+        <v>0.4576910534335857</v>
       </c>
       <c r="D24">
-        <v>1.220705217224705</v>
+        <v>0.4979744982819638</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1018,7 +1098,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1034,27 +1114,27 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.7246479937483138</v>
+        <v>0.888013985830019</v>
       </c>
       <c r="C25">
-        <v>0.6939555826035523</v>
+        <v>0.8031106021030202</v>
       </c>
       <c r="D25">
-        <v>0.7553404048930753</v>
+        <v>0.9729173695570178</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1065,17 +1145,17 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.6364891234024157</v>
+        <v>0.7807594648091343</v>
       </c>
       <c r="C26">
-        <v>0.6031048000360983</v>
+        <v>0.7658544367906445</v>
       </c>
       <c r="D26">
-        <v>0.6698734467687331</v>
+        <v>0.7956644928276241</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1085,7 +1165,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1176,27 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.5166852550343117</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>-0.08013094979393443</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1.113501459862558</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1127,17 +1207,17 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.7157979790611647</v>
+        <v>0.6259960136704442</v>
       </c>
       <c r="C28">
-        <v>0.3733344427429349</v>
+        <v>0.4112130941827216</v>
       </c>
       <c r="D28">
-        <v>1.058261515379395</v>
+        <v>0.8407789331581669</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1147,7 +1227,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1158,17 +1238,17 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.5991447786550261</v>
+        <v>0.6481933751773699</v>
       </c>
       <c r="C29">
-        <v>0.5738917043631453</v>
+        <v>0.6341074243935132</v>
       </c>
       <c r="D29">
-        <v>0.624397852946907</v>
+        <v>0.6622793259612265</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1178,7 +1258,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1189,22 +1269,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.4155583606863967</v>
+        <v>0.6208576612658211</v>
       </c>
       <c r="C30">
-        <v>0.3934273636544016</v>
+        <v>0.210351133468506</v>
       </c>
       <c r="D30">
-        <v>0.4376893577183918</v>
+        <v>1.031364189063136</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1216,75 +1296,110 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B31">
-        <v>0.7556518887008248</v>
+        <v>0.6816735475635651</v>
       </c>
       <c r="C31">
-        <v>0.74611680359762</v>
+        <v>0.6604197065003439</v>
       </c>
       <c r="D31">
-        <v>0.7651869738040296</v>
+        <v>0.7029273886267864</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B32">
-        <v>0.7935120564715827</v>
+        <v>0.6318361909031225</v>
       </c>
       <c r="C32">
-        <v>0.7805441595939795</v>
+        <v>0.33927253751775</v>
       </c>
       <c r="D32">
-        <v>0.806479953349186</v>
+        <v>0.924399844288495</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.7191862120070364</v>
+        <v>0.4984949455015324</v>
       </c>
       <c r="C33">
-        <v>0.707658001231473</v>
+        <v>0.4799375451281282</v>
       </c>
       <c r="D33">
-        <v>0.7307144227825997</v>
+        <v>0.5170523458749368</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B34">
-        <v>0.7908369035228823</v>
+        <v>0.8347416779235822</v>
       </c>
       <c r="C34">
-        <v>0.6296319380098794</v>
+        <v>0.6933658607803703</v>
       </c>
       <c r="D34">
-        <v>0.9520418690358852</v>
+        <v>0.9761174950667941</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1294,23 +1409,28 @@
       <c r="F34" t="inlineStr">
         <is>
           <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.8046731978579541</v>
+        <v>0.9370336068243746</v>
       </c>
       <c r="C35">
-        <v>0.6521294600750132</v>
+        <v>0.8287818981642153</v>
       </c>
       <c r="D35">
-        <v>0.9572169356408951</v>
+        <v>1.045285315484534</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1320,23 +1440,28 @@
       <c r="F35" t="inlineStr">
         <is>
           <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.8332736057133603</v>
+        <v>0.8157642585823609</v>
       </c>
       <c r="C36">
-        <v>0.8142397476641716</v>
+        <v>0.7934719002210419</v>
       </c>
       <c r="D36">
-        <v>0.852307463762549</v>
+        <v>0.8380566169436799</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1346,23 +1471,28 @@
       <c r="F36" t="inlineStr">
         <is>
           <t>Branca</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.7923454783942285</v>
+        <v>0.745205045680332</v>
       </c>
       <c r="C37">
-        <v>0.773705292984303</v>
+        <v>0.72591664790566</v>
       </c>
       <c r="D37">
-        <v>0.810985663804154</v>
+        <v>0.7644934434550039</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1372,23 +1502,28 @@
       <c r="F37" t="inlineStr">
         <is>
           <t>Branca</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B38">
-        <v>0.8866898420589567</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.5075503445294732</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1.26582933958844</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1398,23 +1533,28 @@
       <c r="F38" t="inlineStr">
         <is>
           <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B39">
-        <v>0.7763999430244014</v>
+        <v>0.6103464848892114</v>
       </c>
       <c r="C39">
-        <v>0.6109334722888813</v>
+        <v>0.2228443477530797</v>
       </c>
       <c r="D39">
-        <v>0.9418664137599215</v>
+        <v>0.9978486220253431</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1424,23 +1564,28 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B40">
-        <v>0.6381906431300899</v>
+        <v>0.6387892304135054</v>
       </c>
       <c r="C40">
-        <v>0.4619934590015793</v>
+        <v>0.4082792377729573</v>
       </c>
       <c r="D40">
-        <v>0.8143878272586005</v>
+        <v>0.8692992230540536</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1450,23 +1595,28 @@
       <c r="F40" t="inlineStr">
         <is>
           <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B41">
-        <v>0.7678398254445846</v>
+        <v>0.6947633444509966</v>
       </c>
       <c r="C41">
-        <v>0.7510611969769123</v>
+        <v>0.6764895732275429</v>
       </c>
       <c r="D41">
-        <v>0.7846184539122569</v>
+        <v>0.7130371156744504</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1476,23 +1626,28 @@
       <c r="F41" t="inlineStr">
         <is>
           <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B42">
-        <v>0.6742640901286182</v>
+        <v>0.6031089889072856</v>
       </c>
       <c r="C42">
-        <v>0.658278772153904</v>
+        <v>0.5847775925620416</v>
       </c>
       <c r="D42">
-        <v>0.6902494081033325</v>
+        <v>0.6214403852525295</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1502,23 +1657,28 @@
       <c r="F42" t="inlineStr">
         <is>
           <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B43">
-        <v>0.8080531874974952</v>
+        <v>0.6419923032348841</v>
       </c>
       <c r="C43">
-        <v>0.6254173582918174</v>
+        <v>0.1144710689296327</v>
       </c>
       <c r="D43">
-        <v>0.990689016703173</v>
+        <v>1.169513537540136</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1532,24 +1692,24 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B44">
-        <v>0.838135783514578</v>
+        <v>0.5717172321250799</v>
       </c>
       <c r="C44">
-        <v>0.684926650252066</v>
+        <v>-0.077270752974545</v>
       </c>
       <c r="D44">
-        <v>0.9913449167770899</v>
+        <v>1.220705217224705</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1563,24 +1723,24 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B45">
-        <v>0.8437436933443816</v>
+        <v>0.7246479937483138</v>
       </c>
       <c r="C45">
-        <v>0.8226035200668647</v>
+        <v>0.6939555826035523</v>
       </c>
       <c r="D45">
-        <v>0.8648838666218985</v>
+        <v>0.7553404048930753</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1594,24 +1754,24 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B46">
-        <v>0.8050955423991542</v>
+        <v>0.6364891234024157</v>
       </c>
       <c r="C46">
-        <v>0.7849604995456249</v>
+        <v>0.6031048000360983</v>
       </c>
       <c r="D46">
-        <v>0.8252305852526834</v>
+        <v>0.6698734467687331</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1625,24 +1785,24 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B47">
-        <v>0.8866898420589567</v>
+        <v>0.5166852550343117</v>
       </c>
       <c r="C47">
-        <v>0.5075503445294732</v>
+        <v>-0.08013094979393443</v>
       </c>
       <c r="D47">
-        <v>1.26582933958844</v>
+        <v>1.113501459862558</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1651,33 +1811,33 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B48">
-        <v>0.7636840365889423</v>
+        <v>0.7157979790611647</v>
       </c>
       <c r="C48">
-        <v>0.5745757965573897</v>
+        <v>0.3733344427429349</v>
       </c>
       <c r="D48">
-        <v>0.952792276620495</v>
+        <v>1.058261515379395</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1687,59 +1847,59 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B49">
-        <v>0.6055541277811523</v>
+        <v>0.5991447786550261</v>
       </c>
       <c r="C49">
-        <v>0.4018734770625138</v>
+        <v>0.5738917043631453</v>
       </c>
       <c r="D49">
-        <v>0.8092347784997908</v>
+        <v>0.624397852946907</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B50">
-        <v>0.7816665353469855</v>
+        <v>0.4155583606863967</v>
       </c>
       <c r="C50">
-        <v>0.7627935342887395</v>
+        <v>0.3934273636544016</v>
       </c>
       <c r="D50">
-        <v>0.8005395364052315</v>
+        <v>0.4376893577183918</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1749,7 +1909,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -1760,27 +1920,27 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.6912144153816057</v>
+        <v>0.7556518887008248</v>
       </c>
       <c r="C51">
-        <v>0.6726397282339496</v>
+        <v>0.74611680359762</v>
       </c>
       <c r="D51">
-        <v>0.7097891025292618</v>
+        <v>0.7651869738040296</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1791,13 +1951,13 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.70330865859855</v>
+        <v>0.7935120564715827</v>
       </c>
       <c r="C52">
-        <v>0.4665564603209422</v>
+        <v>0.7805441595939795</v>
       </c>
       <c r="D52">
-        <v>0.9400608568761577</v>
+        <v>0.806479953349186</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1806,12 +1966,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1822,13 +1982,13 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.3943581898570074</v>
+        <v>0.7191862120070364</v>
       </c>
       <c r="C53">
-        <v>-0.01750945959927369</v>
+        <v>0.707658001231473</v>
       </c>
       <c r="D53">
-        <v>0.8062258393132886</v>
+        <v>0.7307144227825997</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1837,12 +1997,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1853,27 +2013,27 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.7541770674921384</v>
+        <v>0.7971413880382535</v>
       </c>
       <c r="C54">
-        <v>0.7146696842767383</v>
+        <v>0.685145270774533</v>
       </c>
       <c r="D54">
-        <v>0.7936844507075386</v>
+        <v>0.909137505301974</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1884,17 +2044,17 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.702911596346055</v>
+        <v>0.8127173564770178</v>
       </c>
       <c r="C55">
-        <v>0.6642459673069889</v>
+        <v>0.7979688575118961</v>
       </c>
       <c r="D55">
-        <v>0.7415772253851212</v>
+        <v>0.8274658554421396</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1904,7 +2064,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1915,27 +2075,27 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.864305020822169</v>
+        <v>0.8866898420589567</v>
       </c>
       <c r="C56">
-        <v>0.6668535469451746</v>
+        <v>0.5075503445294732</v>
       </c>
       <c r="D56">
-        <v>1.061756494699163</v>
+        <v>1.26582933958844</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2106,17 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.7879272948833865</v>
+        <v>0.7261651586691708</v>
       </c>
       <c r="C57">
-        <v>0.5594725844341547</v>
+        <v>0.6014884227888625</v>
       </c>
       <c r="D57">
-        <v>1.016382005332618</v>
+        <v>0.850841894549479</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1966,7 +2126,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1977,17 +2137,17 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.7057057657974546</v>
+        <v>0.7195523823909544</v>
       </c>
       <c r="C58">
-        <v>0.6773222012090531</v>
+        <v>0.7071062494243401</v>
       </c>
       <c r="D58">
-        <v>0.7340893303858561</v>
+        <v>0.7319985153575688</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -1997,7 +2157,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2008,25 +2168,1265 @@
         </is>
       </c>
       <c r="B59">
+        <v>0.7714064818593619</v>
+      </c>
+      <c r="C59">
+        <v>0.7609344744726152</v>
+      </c>
+      <c r="D59">
+        <v>0.7818784892461086</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0.6738016981037883</v>
+      </c>
+      <c r="C60">
+        <v>0.652401710051169</v>
+      </c>
+      <c r="D60">
+        <v>0.6952016861564076</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>0.7908369035228823</v>
+      </c>
+      <c r="C61">
+        <v>0.6296319380098794</v>
+      </c>
+      <c r="D61">
+        <v>0.9520418690358852</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>0.8046731978579541</v>
+      </c>
+      <c r="C62">
+        <v>0.6521294600750132</v>
+      </c>
+      <c r="D62">
+        <v>0.9572169356408951</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>0.8332736057133603</v>
+      </c>
+      <c r="C63">
+        <v>0.8142397476641716</v>
+      </c>
+      <c r="D63">
+        <v>0.852307463762549</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>0.7923454783942285</v>
+      </c>
+      <c r="C64">
+        <v>0.773705292984303</v>
+      </c>
+      <c r="D64">
+        <v>0.810985663804154</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>0.8866898420589567</v>
+      </c>
+      <c r="C65">
+        <v>0.5075503445294732</v>
+      </c>
+      <c r="D65">
+        <v>1.26582933958844</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>0.7763999430244014</v>
+      </c>
+      <c r="C66">
+        <v>0.6109334722888813</v>
+      </c>
+      <c r="D66">
+        <v>0.9418664137599215</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>0.6381906431300899</v>
+      </c>
+      <c r="C67">
+        <v>0.4619934590015793</v>
+      </c>
+      <c r="D67">
+        <v>0.8143878272586005</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>0.7678398254445846</v>
+      </c>
+      <c r="C68">
+        <v>0.7510611969769123</v>
+      </c>
+      <c r="D68">
+        <v>0.7846184539122569</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>0.6742640901286182</v>
+      </c>
+      <c r="C69">
+        <v>0.658278772153904</v>
+      </c>
+      <c r="D69">
+        <v>0.6902494081033325</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>0.8070094334899972</v>
+      </c>
+      <c r="C70">
+        <v>0.7924275530588651</v>
+      </c>
+      <c r="D70">
+        <v>0.8215913139211293</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>0.7366877055525126</v>
+      </c>
+      <c r="C71">
+        <v>0.7237878271403791</v>
+      </c>
+      <c r="D71">
+        <v>0.7495875839646461</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>0.7205560671179235</v>
+      </c>
+      <c r="C72">
+        <v>0.6951712887564521</v>
+      </c>
+      <c r="D72">
+        <v>0.745940845479395</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>0.6315775363411891</v>
+      </c>
+      <c r="C73">
+        <v>0.6027655358428576</v>
+      </c>
+      <c r="D73">
+        <v>0.6603895368395205</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>0.8225178614249057</v>
+      </c>
+      <c r="C74">
+        <v>0.7024218010531567</v>
+      </c>
+      <c r="D74">
+        <v>0.9426139217966547</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>0.8244191516418237</v>
+      </c>
+      <c r="C75">
+        <v>0.8084258927014666</v>
+      </c>
+      <c r="D75">
+        <v>0.8404124105821807</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>0.8866898420589567</v>
+      </c>
+      <c r="C76">
+        <v>0.5075503445294732</v>
+      </c>
+      <c r="D76">
+        <v>1.26582933958844</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>0.7084598804847221</v>
+      </c>
+      <c r="C77">
+        <v>0.5673019893373852</v>
+      </c>
+      <c r="D77">
+        <v>0.849617771632059</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>0.7352863495726575</v>
+      </c>
+      <c r="C78">
+        <v>0.7210668028573999</v>
+      </c>
+      <c r="D78">
+        <v>0.7495058962879151</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>0.6175875745792075</v>
+      </c>
+      <c r="C79">
+        <v>0.4204703161900748</v>
+      </c>
+      <c r="D79">
+        <v>0.8147048329683403</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>0.7275933883449556</v>
+      </c>
+      <c r="C80">
+        <v>0.6979157757116248</v>
+      </c>
+      <c r="D80">
+        <v>0.7572710009782864</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>0.8301576847557606</v>
+      </c>
+      <c r="C81">
+        <v>0.6848696495832775</v>
+      </c>
+      <c r="D81">
+        <v>0.9754457199282437</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>0.6513749225025635</v>
+      </c>
+      <c r="C82">
+        <v>0.6259766342437908</v>
+      </c>
+      <c r="D82">
+        <v>0.6767732107613361</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>0.8080531874974952</v>
+      </c>
+      <c r="C83">
+        <v>0.6254173582918174</v>
+      </c>
+      <c r="D83">
+        <v>0.990689016703173</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>0.838135783514578</v>
+      </c>
+      <c r="C84">
+        <v>0.684926650252066</v>
+      </c>
+      <c r="D84">
+        <v>0.9913449167770899</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>0.8437436933443816</v>
+      </c>
+      <c r="C85">
+        <v>0.8226035200668647</v>
+      </c>
+      <c r="D85">
+        <v>0.8648838666218985</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>0.8050955423991542</v>
+      </c>
+      <c r="C86">
+        <v>0.7849604995456249</v>
+      </c>
+      <c r="D86">
+        <v>0.8252305852526834</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>0.8866898420589567</v>
+      </c>
+      <c r="C87">
+        <v>0.5075503445294732</v>
+      </c>
+      <c r="D87">
+        <v>1.26582933958844</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>0.7636840365889423</v>
+      </c>
+      <c r="C88">
+        <v>0.5745757965573897</v>
+      </c>
+      <c r="D88">
+        <v>0.952792276620495</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>0.6055541277811523</v>
+      </c>
+      <c r="C89">
+        <v>0.4018734770625138</v>
+      </c>
+      <c r="D89">
+        <v>0.8092347784997908</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>0.7816665353469855</v>
+      </c>
+      <c r="C90">
+        <v>0.7627935342887395</v>
+      </c>
+      <c r="D90">
+        <v>0.8005395364052315</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>0.6912144153816057</v>
+      </c>
+      <c r="C91">
+        <v>0.6726397282339496</v>
+      </c>
+      <c r="D91">
+        <v>0.7097891025292618</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>0.70330865859855</v>
+      </c>
+      <c r="C92">
+        <v>0.4665564603209422</v>
+      </c>
+      <c r="D92">
+        <v>0.9400608568761577</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>0.3943581898570074</v>
+      </c>
+      <c r="C93">
+        <v>-0.01750945959927369</v>
+      </c>
+      <c r="D93">
+        <v>0.8062258393132886</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>0.7541770674921384</v>
+      </c>
+      <c r="C94">
+        <v>0.7146696842767383</v>
+      </c>
+      <c r="D94">
+        <v>0.7936844507075386</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>0.702911596346055</v>
+      </c>
+      <c r="C95">
+        <v>0.6642459673069889</v>
+      </c>
+      <c r="D95">
+        <v>0.7415772253851212</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>0.864305020822169</v>
+      </c>
+      <c r="C96">
+        <v>0.6668535469451746</v>
+      </c>
+      <c r="D96">
+        <v>1.061756494699163</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>0.7879272948833865</v>
+      </c>
+      <c r="C97">
+        <v>0.5594725844341547</v>
+      </c>
+      <c r="D97">
+        <v>1.016382005332618</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>0.7057057657974546</v>
+      </c>
+      <c r="C98">
+        <v>0.6773222012090531</v>
+      </c>
+      <c r="D98">
+        <v>0.7340893303858561</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B99">
         <v>0.6032288000120566</v>
       </c>
-      <c r="C59">
+      <c r="C99">
         <v>0.5664332967619273</v>
       </c>
-      <c r="D59">
+      <c r="D99">
         <v>0.6400243032621858</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Preto ou pardo</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Rural</t>
         </is>
